--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2157.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2157.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.435131296520704</v>
+        <v>0.921897292137146</v>
       </c>
       <c r="B1">
-        <v>3.106312490393022</v>
+        <v>1.629784226417542</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.140740466895399</v>
+        <v>1.636160254478455</v>
       </c>
       <c r="E1">
-        <v>0.6565358424064351</v>
+        <v>1.068482756614685</v>
       </c>
     </row>
   </sheetData>
